--- a/outputs/extracted/parsed_prime.xlsx
+++ b/outputs/extracted/parsed_prime.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$14</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t xml:space="preserve">eu_pnumber</t>
   </si>
@@ -40,55 +43,52 @@
     <t xml:space="preserve">ptxt</t>
   </si>
   <si>
+    <t xml:space="preserve">EU/1/09/566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value not reported (available for medicines authorised from 2016-03-01 onwards)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU/1/11/729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU/1/11/737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU/1/14/921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU/1/15/1033</t>
+  </si>
+  <si>
     <t xml:space="preserve">EU/1/16/1122</t>
   </si>
   <si>
     <t xml:space="preserve">False</t>
   </si>
   <si>
-    <t xml:space="preserve">CORRECT</t>
-  </si>
-  <si>
     <t xml:space="preserve">EU/1/17/1216</t>
   </si>
   <si>
+    <t xml:space="preserve">EU/1/20/1496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU/1/21/1563</t>
+  </si>
+  <si>
     <t xml:space="preserve">EU/1/21/1601</t>
   </si>
   <si>
     <t xml:space="preserve">EU/1/21/1611</t>
   </si>
   <si>
+    <t xml:space="preserve">EU/1/22/1700</t>
+  </si>
+  <si>
     <t xml:space="preserve">EU/1/23/1736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU/1/09/566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value not reported (available for medicines authorised from 2016-03-01 onwards)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU/1/11/729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU/1/11/737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU/1/14/921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU/1/15/1033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU/1/20/1496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU/1/21/1563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU/1/22/1700</t>
   </si>
 </sst>
 </file>
@@ -187,7 +187,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -200,19 +200,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -226,7 +222,36 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0000FF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,13 +368,13 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -372,176 +397,182 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="b">
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="D7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="C8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -549,82 +580,75 @@
         <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="B13" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F14"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -632,5 +656,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>